--- a/ZPL_UTF8_test/ZPL_Calculator.xlsx
+++ b/ZPL_UTF8_test/ZPL_Calculator.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\László\Documents\GitHub\ZPL_UTF8_test\ZPL_UTF8_test\"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Felbontas">Adatok!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
